--- a/biology/Botanique/Purshie_tridentée/Purshie_tridentée.xlsx
+++ b/biology/Botanique/Purshie_tridentée/Purshie_tridentée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Purshie_trident%C3%A9e</t>
+          <t>Purshie_tridentée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Purshia tridentata
 La Purshie tridentée (Purshia tridentata) est une espèce de plantes à fleurs de la famille des Rosacées. C'est un arbuste présent dans les régions montagneuses à l’ouest de l’Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Purshie_trident%C3%A9e</t>
+          <t>Purshie_tridentée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Purshie tridentée est présente dans la partie occidentale de l’Amérique du Nord. À l’ouest, elle est présente de la Californie à la Colombie-Britannique. Plus à l’est, elle est présente du Montana au Nouveau-Mexique en passant par le Nebraska[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Purshie tridentée est présente dans la partie occidentale de l’Amérique du Nord. À l’ouest, elle est présente de la Californie à la Colombie-Britannique. Plus à l’est, elle est présente du Montana au Nouveau-Mexique en passant par le Nebraska.
 Elle est capable de pousser dans des zones arides à des altitudes comprises entre 700 et 3 400 mètres dans le sud de sa zone de répartition. Au nord, où le climat est plus froid, elle est présente entre 300 et 1 100 mètres d’altitude environ.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Purshie_trident%C3%A9e</t>
+          <t>Purshie_tridentée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arbuste peut atteindre une taille qui varie entre 1 et 5 mètres. Ses feuilles possèdent 3 à 5 lobes de 5 à 20 mm de long. Les fleurs sont jaune pâle, possèdent 5 pétales et font entre 6 et 8 mm de long. Les anthères sont aussi jaunes mais plus sombres. Les fruits, qui poussent en groupes, sont des achènes secs de 0.6 à 2 cm de long.
 Il est reconnu pour ses qualités en ce qui concerne la fixation de l’azote dans le sol.
